--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>首页</t>
   </si>
@@ -48,7 +48,13 @@
     <t>https://github.com/hongyangAndroid/baseAdapter</t>
   </si>
   <si>
+    <t>rxjava文档</t>
+  </si>
+  <si>
     <t>https://www.gitbook.com/book/mcxiaoke/rxdocs/details</t>
+  </si>
+  <si>
+    <t>CoordinatorLayout使用</t>
   </si>
   <si>
     <t>http://blog.csdn.net/huachao1001/article/details/51554608</t>
@@ -59,9 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -82,23 +88,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +140,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -113,7 +162,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,21 +185,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,68 +209,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +445,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -455,36 +485,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,11 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,16 +543,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,115 +561,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,14 +1034,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="34.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="16.4545454545455" customWidth="1"/>
-    <col min="5" max="5" width="15.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="35.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1081,14 +1087,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="6:6">
+    <row r="4" spans="5:6">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="6:6">
+    <row r="5" spans="5:6">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>首页</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>http://blog.csdn.net/huachao1001/article/details/51554608</t>
+  </si>
+  <si>
+    <t>AppBarLayout</t>
+  </si>
+  <si>
+    <t>http://www.jianshu.com/p/d159f0176576</t>
   </si>
 </sst>
 </file>
@@ -65,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,6 +102,53 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,11 +169,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,45 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,37 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -238,181 +244,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,30 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,6 +452,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,6 +500,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -531,115 +537,115 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,28 +654,28 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="34.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="16.4545454545455" customWidth="1"/>
@@ -1101,6 +1107,14 @@
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6">
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1112,6 +1126,7 @@
     <hyperlink ref="F3" r:id="rId1" display="https://github.com/hongyangAndroid/baseAdapter"/>
     <hyperlink ref="F4" r:id="rId2" display="https://www.gitbook.com/book/mcxiaoke/rxdocs/details"/>
     <hyperlink ref="F5" r:id="rId3" display="http://blog.csdn.net/huachao1001/article/details/51554608"/>
+    <hyperlink ref="F6" r:id="rId4" display="http://www.jianshu.com/p/d159f0176576"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -87,6 +87,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -134,14 +142,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -537,7 +537,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -549,7 +549,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,49 +558,49 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -609,13 +609,13 @@
     <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -630,63 +630,66 @@
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,7 +1043,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1097,7 +1100,7 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1105,7 +1108,7 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1113,7 +1116,7 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -72,8 +72,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -87,15 +87,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +115,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -118,6 +126,80 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,22 +215,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,73 +228,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,187 +238,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +429,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,56 +454,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,6 +477,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -529,6 +514,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,145 +537,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,10 +686,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1079,7 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1100,7 +1100,7 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1126,10 +1126,11 @@
     <mergeCell ref="D1:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="https://github.com/hongyangAndroid/baseAdapter"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://github.com/hongyangAndroid/baseAdapter" tooltip="https://github.com/hongyangAndroid/baseAdapter"/>
     <hyperlink ref="F4" r:id="rId2" display="https://www.gitbook.com/book/mcxiaoke/rxdocs/details"/>
     <hyperlink ref="F5" r:id="rId3" display="http://blog.csdn.net/huachao1001/article/details/51554608"/>
     <hyperlink ref="F6" r:id="rId4" display="http://www.jianshu.com/p/d159f0176576"/>
+    <hyperlink ref="F2" r:id="rId5" display="https://github.com/youth5201314/banner"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="7950"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>首页</t>
   </si>
@@ -85,6 +85,30 @@
   </si>
   <si>
     <t>https://github.com/evant/gradle-retrolambda</t>
+  </si>
+  <si>
+    <t>android studio插件大全</t>
+  </si>
+  <si>
+    <t>https://www.zhihu.com/question/28026027</t>
+  </si>
+  <si>
+    <t>MVP代码生成插件</t>
+  </si>
+  <si>
+    <t>https://github.com/Leeii/GenerateMVP-Plugin</t>
+  </si>
+  <si>
+    <t>下单</t>
+  </si>
+  <si>
+    <t>智能下单和自助下单</t>
+  </si>
+  <si>
+    <t>更多</t>
+  </si>
+  <si>
+    <t>入口页</t>
   </si>
 </sst>
 </file>
@@ -92,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,12 +147,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -143,8 +182,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,13 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -175,30 +222,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,24 +259,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +283,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +474,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,56 +532,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -545,8 +549,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,16 +594,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,112 +615,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,17 +1085,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="34.275" customWidth="1"/>
-    <col min="4" max="4" width="16.4583333333333" customWidth="1"/>
-    <col min="5" max="5" width="35.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="34.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="16.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="35.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1166,6 +1190,38 @@
       </c>
       <c r="F9" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1180,6 +1236,8 @@
     <hyperlink ref="F6" r:id="rId4" display="http://www.jianshu.com/p/d159f0176576"/>
     <hyperlink ref="F7" r:id="rId5" display="http://www.jianshu.com/p/a8b49ff64cd3"/>
     <hyperlink ref="F9" r:id="rId6" display="https://github.com/evant/gradle-retrolambda"/>
+    <hyperlink ref="F10" r:id="rId7" display="https://www.zhihu.com/question/28026027"/>
+    <hyperlink ref="F11" r:id="rId8" display="https://github.com/Leeii/GenerateMVP-Plugin"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1196,7 +1254,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1213,7 +1271,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>首页</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>https://github.com/Leeii/GenerateMVP-Plugin</t>
+  </si>
+  <si>
+    <t>Sweet Alert Dialog</t>
+  </si>
+  <si>
+    <t>https://github.com/pedant/sweet-alert-dialog/blob/master/README.zh.md</t>
   </si>
   <si>
     <t>下单</t>
@@ -116,9 +122,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -147,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,23 +166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +190,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,6 +244,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,63 +273,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,187 +289,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +480,44 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,11 +551,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,50 +580,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,7 +591,7 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,16 +600,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,112 +621,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,7 +1094,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1208,20 +1214,28 @@
         <v>26</v>
       </c>
     </row>
+    <row r="12" spans="5:6">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1238,6 +1252,7 @@
     <hyperlink ref="F9" r:id="rId6" display="https://github.com/evant/gradle-retrolambda"/>
     <hyperlink ref="F10" r:id="rId7" display="https://www.zhihu.com/question/28026027"/>
     <hyperlink ref="F11" r:id="rId8" display="https://github.com/Leeii/GenerateMVP-Plugin"/>
+    <hyperlink ref="F12" r:id="rId9" display="https://github.com/pedant/sweet-alert-dialog/blob/master/README.zh.md"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>首页</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>https://github.com/pedant/sweet-alert-dialog/blob/master/README.zh.md</t>
+  </si>
+  <si>
+    <t>Android Activity 滑动返回。支持微信滑动返回样式、横屏滑动返回、全屏滑动返回</t>
+  </si>
+  <si>
+    <t>https://github.com/bingoogolapple/BGASwipeBackLayout-Android</t>
   </si>
   <si>
     <t>下单</t>
@@ -122,8 +128,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -152,13 +158,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -166,18 +174,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,23 +229,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,23 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,37 +281,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,13 +295,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,169 +445,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,74 +486,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -580,6 +518,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,16 +606,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,112 +627,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,7 +1100,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1222,20 +1228,28 @@
         <v>28</v>
       </c>
     </row>
+    <row r="13" spans="5:6">
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1253,6 +1267,7 @@
     <hyperlink ref="F10" r:id="rId7" display="https://www.zhihu.com/question/28026027"/>
     <hyperlink ref="F11" r:id="rId8" display="https://github.com/Leeii/GenerateMVP-Plugin"/>
     <hyperlink ref="F12" r:id="rId9" display="https://github.com/pedant/sweet-alert-dialog/blob/master/README.zh.md"/>
+    <hyperlink ref="F13" r:id="rId10" display="https://github.com/bingoogolapple/BGASwipeBackLayout-Android"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>首页</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>智能下单和自助下单</t>
+  </si>
+  <si>
+    <t>AutoValue生成插件</t>
+  </si>
+  <si>
+    <t>https://github.com/afcastano/AutoValuePlugin</t>
   </si>
   <si>
     <t>更多</t>
@@ -128,10 +134,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -158,6 +164,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -166,6 +179,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,40 +216,71 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,72 +291,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -301,19 +307,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,49 +421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,91 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +492,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,6 +515,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -541,6 +556,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,25 +588,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,16 +612,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,112 +633,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1106,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1236,20 +1242,26 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1268,6 +1280,7 @@
     <hyperlink ref="F11" r:id="rId8" display="https://github.com/Leeii/GenerateMVP-Plugin"/>
     <hyperlink ref="F12" r:id="rId9" display="https://github.com/pedant/sweet-alert-dialog/blob/master/README.zh.md"/>
     <hyperlink ref="F13" r:id="rId10" display="https://github.com/bingoogolapple/BGASwipeBackLayout-Android"/>
+    <hyperlink ref="F14" r:id="rId11" display="https://github.com/afcastano/AutoValuePlugin"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>首页</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>https://github.com/afcastano/AutoValuePlugin</t>
+  </si>
+  <si>
+    <t>解决Retrofit多BaseUrl及运行时动态改变BaseUrl</t>
+  </si>
+  <si>
+    <t>http://www.jianshu.com/p/2919bdb8d09a</t>
   </si>
   <si>
     <t>更多</t>
@@ -135,9 +141,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -165,53 +171,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,67 +290,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -301,31 +307,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,73 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,48 +457,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -469,6 +475,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -476,12 +488,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +498,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,6 +512,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,17 +581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,30 +598,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,16 +618,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,112 +639,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1112,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1256,12 +1262,20 @@
         <v>34</v>
       </c>
     </row>
+    <row r="15" spans="5:6">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1281,6 +1295,7 @@
     <hyperlink ref="F12" r:id="rId9" display="https://github.com/pedant/sweet-alert-dialog/blob/master/README.zh.md"/>
     <hyperlink ref="F13" r:id="rId10" display="https://github.com/bingoogolapple/BGASwipeBackLayout-Android"/>
     <hyperlink ref="F14" r:id="rId11" display="https://github.com/afcastano/AutoValuePlugin"/>
+    <hyperlink ref="F15" r:id="rId12" display="http://www.jianshu.com/p/2919bdb8d09a"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>首页</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>http://www.jianshu.com/p/2919bdb8d09a</t>
+  </si>
+  <si>
+    <t>学习项目，帮助你提升独自开发 Android 业务层的能力</t>
+  </si>
+  <si>
+    <t>https://github.com/G-Joker/WeaponApp</t>
   </si>
   <si>
     <t>更多</t>
@@ -1112,7 +1118,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1270,12 +1276,20 @@
         <v>36</v>
       </c>
     </row>
+    <row r="16" spans="5:6">
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1296,6 +1310,7 @@
     <hyperlink ref="F13" r:id="rId10" display="https://github.com/bingoogolapple/BGASwipeBackLayout-Android"/>
     <hyperlink ref="F14" r:id="rId11" display="https://github.com/afcastano/AutoValuePlugin"/>
     <hyperlink ref="F15" r:id="rId12" display="http://www.jianshu.com/p/2919bdb8d09a"/>
+    <hyperlink ref="F16" r:id="rId13" display="https://github.com/G-Joker/WeaponApp"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/供鲜生项目重构计划.xlsx
+++ b/供鲜生项目重构计划.xlsx
@@ -147,9 +147,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,6 +177,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -184,7 +268,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,89 +276,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,19 +290,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -313,73 +313,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,31 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,73 +493,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,82 +507,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +533,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -612,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,16 +624,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,112 +645,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
